--- a/medicine/Psychotrope/Apatinska_pivara_Apatin/Apatinska_pivara_Apatin.xlsx
+++ b/medicine/Psychotrope/Apatinska_pivara_Apatin/Apatinska_pivara_Apatin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Apatinska pivara (code BELEX : APTP) est une entreprise serbe qui a son siège social à Apatin, dans la province de Voïvodine. Elle travaille dans le secteur de la brasserie.
-Apatinska pivara est aujourd'hui la plus importante brasserie de Serbie[1].
+Apatinska pivara est aujourd'hui la plus importante brasserie de Serbie.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Apatinska pivara a été créée en 1756. En décembre 2003, la brasserie belge Interbrew a acheté 99 % du capital en actions de la société. En 2004, Interbrew a fusionné avec la société brésilienne AmBev pour former une nouvelle entité nommée InBev, qui détient ainsi la majorité des actions de Apatinska pivara[1].
-La société a été admise au marché non régulé de la Bourse de Belgrade le 3 mars 2004[2] et en a été exclue le 19 janvier 2010[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apatinska pivara a été créée en 1756. En décembre 2003, la brasserie belge Interbrew a acheté 99 % du capital en actions de la société. En 2004, Interbrew a fusionné avec la société brésilienne AmBev pour former une nouvelle entité nommée InBev, qui détient ainsi la majorité des actions de Apatinska pivara.
+La société a été admise au marché non régulé de la Bourse de Belgrade le 3 mars 2004 et en a été exclue le 19 janvier 2010.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les produits phares d'Apatinska pivara sont la Jelen Pivo et la Pils Light, présentées en canettes ou en bouteilles. La société produit également des boissons gazeuses et des thés glacés.
-En avril 2008, la société a annoncé que ses ventes de bière avaient progressé de 2 millions d'hectolitres pour atteindre 3,5 millions d'hectolitres[4].
+En avril 2008, la société a annoncé que ses ventes de bière avaient progressé de 2 millions d'hectolitres pour atteindre 3,5 millions d'hectolitres.
 </t>
         </is>
       </c>
